--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ORACLE\PLSQL\PLSQL-2019-12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EGCC\PLSQL-2019-12\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="ASISTENCIA" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ASISTENCIA!$A$1:$F$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ASISTENCIA!$A$1:$F$26</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="28">
   <si>
     <t>NRO</t>
   </si>
@@ -99,6 +99,18 @@
   </si>
   <si>
     <t>Control de Asistencia</t>
+  </si>
+  <si>
+    <t>22.DIC.2019</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>TAIPE MELISSA</t>
+  </si>
+  <si>
+    <t>29.DIC.2019</t>
   </si>
 </sst>
 </file>
@@ -260,22 +272,22 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -618,83 +630,83 @@
   <sheetPr codeName="Hoja1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" customWidth="1"/>
-    <col min="3" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" customWidth="1"/>
+    <col min="3" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:6" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A3" s="12" t="s">
+    <row r="1" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:6" ht="7.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-    </row>
-    <row r="4" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15" t="s">
+      <c r="B6" s="16"/>
+      <c r="C6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="16">
+      <c r="B7" s="16"/>
+      <c r="C7" s="13">
         <v>201912</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="14">
         <v>43807</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="15" t="s">
+      <c r="E7" s="14"/>
+      <c r="F7" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>0</v>
       </c>
@@ -707,152 +719,222 @@
       <c r="D9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-    </row>
-    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>2</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>7</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>8</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
+    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>12</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="B21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>13</v>
       </c>
@@ -861,6 +943,16 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="29">
   <si>
     <t>NRO</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>29.DIC.2019</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -632,8 +635,8 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,7 +745,9 @@
       <c r="E10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -794,7 +799,9 @@
       <c r="E13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -828,7 +835,9 @@
       <c r="E15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -844,7 +853,9 @@
         <v>25</v>
       </c>
       <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -862,7 +873,9 @@
       <c r="E17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="4"/>
+      <c r="F17" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -896,7 +909,9 @@
       <c r="E19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -914,7 +929,9 @@
       <c r="E20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -932,7 +949,9 @@
       <c r="E21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
